--- a/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2225,4 +2226,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2234,7 +2235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,17 +2246,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2265,14 +2286,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.28</v>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2281,13 +2324,877 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3125,7 +3126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,17 +3137,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3156,14 +3177,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.38</v>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3172,14 +3215,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.28</v>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3188,13 +3253,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3638,7 +3639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3649,17 +3650,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3669,14 +3690,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3685,14 +3728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.38</v>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3701,14 +3766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.28</v>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3717,13 +3804,643 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600577-精达股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.38</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.03</v>
       </c>
     </row>
@@ -566,6 +583,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1777,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2667,7 +3042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3861,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
